--- a/SA_Scenarios/SA_Scenarios_DC.xlsx
+++ b/SA_Scenarios/SA_Scenarios_DC.xlsx
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10581.5186</v>
+        <v>6023.670550000001</v>
       </c>
       <c r="C2" t="n">
-        <v>117.73315</v>
+        <v>114.78515</v>
       </c>
       <c r="D2" t="n">
         <v>12.1351</v>
       </c>
       <c r="E2" t="n">
-        <v>691.04805</v>
+        <v>672.0316</v>
       </c>
       <c r="F2" t="n">
-        <v>300302.11455</v>
+        <v>32867.3233</v>
       </c>
       <c r="G2" t="n">
-        <v>3624.9269</v>
+        <v>2177.90575</v>
       </c>
       <c r="H2" t="n">
-        <v>296677.1877</v>
+        <v>30689.4177</v>
       </c>
       <c r="I2" t="n">
-        <v>443.3025000000001</v>
+        <v>488.3025</v>
       </c>
       <c r="J2" t="n">
-        <v>296233.8852</v>
+        <v>30201.11519999999</v>
       </c>
       <c r="K2" t="n">
-        <v>366892.166</v>
+        <v>43460.13060000001</v>
       </c>
       <c r="L2" t="n">
-        <v>3624.927000000001</v>
+        <v>2177.906</v>
       </c>
       <c r="M2" t="n">
-        <v>363267.2389999999</v>
+        <v>41282.2246</v>
       </c>
       <c r="N2" t="n">
-        <v>711.4552</v>
+        <v>1019.015</v>
       </c>
       <c r="O2" t="n">
-        <v>362555.784</v>
+        <v>40263.20959999999</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.16</v>
+        <v>9041.081</v>
       </c>
       <c r="C3" t="n">
+        <v>187.343</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>32.917</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1296.37</v>
       </c>
       <c r="F3" t="n">
-        <v>242.116</v>
+        <v>34764.63</v>
       </c>
       <c r="G3" t="n">
-        <v>241.916</v>
+        <v>3155.668</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>31608.962</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>407.593</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>31201.369</v>
       </c>
       <c r="K3" t="n">
-        <v>875422.6394000001</v>
+        <v>40656.5826</v>
       </c>
       <c r="L3" t="n">
-        <v>241.916</v>
+        <v>3155.668</v>
       </c>
       <c r="M3" t="n">
-        <v>875180.7234000001</v>
+        <v>37500.9146</v>
       </c>
       <c r="N3" t="n">
-        <v>2473.9994</v>
+        <v>669.2053999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>872706.724</v>
+        <v>36831.7092</v>
       </c>
     </row>
     <row r="4">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34315.636</v>
+        <v>13402.931</v>
       </c>
       <c r="C4" t="n">
-        <v>164.945</v>
+        <v>146.664</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -631,34 +631,34 @@
         <v>940.701</v>
       </c>
       <c r="F4" t="n">
-        <v>482611.019</v>
+        <v>54556.734</v>
       </c>
       <c r="G4" t="n">
-        <v>10951.17666027397</v>
+        <v>4313.12251780822</v>
       </c>
       <c r="H4" t="n">
-        <v>471659.842</v>
+        <v>50243.611</v>
       </c>
       <c r="I4" t="n">
         <v>645.861</v>
       </c>
       <c r="J4" t="n">
-        <v>471013.981</v>
+        <v>49597.75</v>
       </c>
       <c r="K4" t="n">
-        <v>358973.5444</v>
+        <v>40121.6768</v>
       </c>
       <c r="L4" t="n">
-        <v>11166.229</v>
+        <v>4528.175</v>
       </c>
       <c r="M4" t="n">
-        <v>347807.3154</v>
+        <v>35593.5018</v>
       </c>
       <c r="N4" t="n">
-        <v>372.081</v>
+        <v>507.5482</v>
       </c>
       <c r="O4" t="n">
-        <v>347435.2344</v>
+        <v>35085.9536</v>
       </c>
     </row>
   </sheetData>
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9189.524149999997</v>
+        <v>6245.967900000001</v>
       </c>
       <c r="C2" t="n">
-        <v>117.7013</v>
+        <v>115.66735</v>
       </c>
       <c r="D2" t="n">
         <v>12.91545</v>
       </c>
       <c r="E2" t="n">
-        <v>682.3635499999999</v>
+        <v>668.682</v>
       </c>
       <c r="F2" t="n">
-        <v>300322.8876</v>
+        <v>32778.9351</v>
       </c>
       <c r="G2" t="n">
-        <v>3183.0466</v>
+        <v>2248.4867</v>
       </c>
       <c r="H2" t="n">
-        <v>297139.841</v>
+        <v>30530.4485</v>
       </c>
       <c r="I2" t="n">
-        <v>446.9558</v>
+        <v>476.9558</v>
       </c>
       <c r="J2" t="n">
-        <v>296692.8852</v>
+        <v>30053.4927</v>
       </c>
       <c r="K2" t="n">
-        <v>379544.3708</v>
+        <v>43179.9518</v>
       </c>
       <c r="L2" t="n">
-        <v>3183.046</v>
+        <v>2248.487</v>
       </c>
       <c r="M2" t="n">
-        <v>376361.3248</v>
+        <v>40931.46479999999</v>
       </c>
       <c r="N2" t="n">
-        <v>828.1211999999999</v>
+        <v>919.8704</v>
       </c>
       <c r="O2" t="n">
-        <v>375533.204</v>
+        <v>40011.5944</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.16</v>
+        <v>9308.251</v>
       </c>
       <c r="C3" t="n">
+        <v>187.343</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>32.917</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1296.37</v>
       </c>
       <c r="F3" t="n">
-        <v>242.116</v>
+        <v>34676.259</v>
       </c>
       <c r="G3" t="n">
-        <v>241.916</v>
+        <v>3240.447</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>31435.812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>395.533</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>31040.279</v>
       </c>
       <c r="K3" t="n">
-        <v>863557.2723999999</v>
+        <v>40894.4488</v>
       </c>
       <c r="L3" t="n">
-        <v>241.916</v>
+        <v>3240.447</v>
       </c>
       <c r="M3" t="n">
-        <v>863315.3563999999</v>
+        <v>37654.0018</v>
       </c>
       <c r="N3" t="n">
-        <v>2441.7814</v>
+        <v>691.0186</v>
       </c>
       <c r="O3" t="n">
-        <v>860873.5752000001</v>
+        <v>36962.983</v>
       </c>
     </row>
     <row r="4">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34315.636</v>
+        <v>13402.931</v>
       </c>
       <c r="C4" t="n">
-        <v>164.945</v>
+        <v>146.664</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -874,34 +874,34 @@
         <v>940.701</v>
       </c>
       <c r="F4" t="n">
-        <v>482611.019</v>
+        <v>54556.734</v>
       </c>
       <c r="G4" t="n">
-        <v>10951.17666027397</v>
+        <v>4313.12251780822</v>
       </c>
       <c r="H4" t="n">
-        <v>471659.842</v>
+        <v>50243.611</v>
       </c>
       <c r="I4" t="n">
         <v>645.861</v>
       </c>
       <c r="J4" t="n">
-        <v>471013.981</v>
+        <v>49597.75</v>
       </c>
       <c r="K4" t="n">
-        <v>358960.2</v>
+        <v>40683.49200000001</v>
       </c>
       <c r="L4" t="n">
-        <v>11166.229</v>
+        <v>4528.175</v>
       </c>
       <c r="M4" t="n">
-        <v>347793.971</v>
+        <v>36155.317</v>
       </c>
       <c r="N4" t="n">
-        <v>394.6832</v>
+        <v>576.1396000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>347399.2876</v>
+        <v>35579.17720000001</v>
       </c>
     </row>
   </sheetData>
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9158.215249999999</v>
+        <v>6032.44505</v>
       </c>
       <c r="C2" t="n">
-        <v>117.73315</v>
+        <v>115.6992</v>
       </c>
       <c r="D2" t="n">
         <v>11.5914</v>
       </c>
       <c r="E2" t="n">
-        <v>666.60835</v>
+        <v>652.9069499999999</v>
       </c>
       <c r="F2" t="n">
-        <v>300334.4998</v>
+        <v>32755.31530000001</v>
       </c>
       <c r="G2" t="n">
-        <v>3172.76365</v>
+        <v>2180.3823</v>
       </c>
       <c r="H2" t="n">
-        <v>297161.73615</v>
+        <v>30574.93305</v>
       </c>
       <c r="I2" t="n">
-        <v>468.85095</v>
+        <v>498.85095</v>
       </c>
       <c r="J2" t="n">
-        <v>296692.8852</v>
+        <v>30076.08209999999</v>
       </c>
       <c r="K2" t="n">
-        <v>384265.9732</v>
+        <v>42513.6398</v>
       </c>
       <c r="L2" t="n">
-        <v>3172.764</v>
+        <v>2180.382</v>
       </c>
       <c r="M2" t="n">
-        <v>381093.2092</v>
+        <v>40333.2578</v>
       </c>
       <c r="N2" t="n">
-        <v>725.9758</v>
+        <v>834.5408</v>
       </c>
       <c r="O2" t="n">
-        <v>380367.2334</v>
+        <v>39498.717</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.16</v>
+        <v>9539.026</v>
       </c>
       <c r="C3" t="n">
+        <v>187.343</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>32.917</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1296.37</v>
       </c>
       <c r="F3" t="n">
-        <v>242.116</v>
+        <v>34591.876</v>
       </c>
       <c r="G3" t="n">
-        <v>241.916</v>
+        <v>3313.678</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>31278.197</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>431.226</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30846.972</v>
       </c>
       <c r="K3" t="n">
-        <v>869311.2367999998</v>
+        <v>41191.97040000001</v>
       </c>
       <c r="L3" t="n">
-        <v>241.916</v>
+        <v>3313.678</v>
       </c>
       <c r="M3" t="n">
-        <v>869069.3207999999</v>
+        <v>37878.2924</v>
       </c>
       <c r="N3" t="n">
-        <v>2455.3486</v>
+        <v>518.7686</v>
       </c>
       <c r="O3" t="n">
-        <v>866613.9719999998</v>
+        <v>37359.5238</v>
       </c>
     </row>
     <row r="4">
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18854.93</v>
+        <v>10458.234</v>
       </c>
       <c r="C4" t="n">
-        <v>164.945</v>
+        <v>146.664</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1063.748</v>
+        <v>957.05</v>
       </c>
       <c r="F4" t="n">
-        <v>468375.985</v>
+        <v>51297.168</v>
       </c>
       <c r="G4" t="n">
-        <v>6047.640904109589</v>
+        <v>3379.033221917808</v>
       </c>
       <c r="H4" t="n">
-        <v>462328.344</v>
+        <v>47918.135</v>
       </c>
       <c r="I4" t="n">
-        <v>503.305</v>
+        <v>728.46</v>
       </c>
       <c r="J4" t="n">
-        <v>461825.039</v>
+        <v>47189.675</v>
       </c>
       <c r="K4" t="n">
-        <v>358518.8344</v>
+        <v>41433.54460000001</v>
       </c>
       <c r="L4" t="n">
-        <v>6262.693</v>
+        <v>3594.086</v>
       </c>
       <c r="M4" t="n">
-        <v>352256.1414</v>
+        <v>37839.4586</v>
       </c>
       <c r="N4" t="n">
-        <v>488.0013999999999</v>
+        <v>550.3248</v>
       </c>
       <c r="O4" t="n">
-        <v>351768.1404</v>
+        <v>37289.13400000001</v>
       </c>
     </row>
   </sheetData>
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11414.9637</v>
+        <v>6857.11565</v>
       </c>
       <c r="C2" t="n">
-        <v>117.73315</v>
+        <v>114.78515</v>
       </c>
       <c r="D2" t="n">
         <v>12.8161</v>
       </c>
       <c r="E2" t="n">
-        <v>672.6184000000001</v>
+        <v>653.60195</v>
       </c>
       <c r="F2" t="n">
-        <v>304271.93495</v>
+        <v>33532.3437</v>
       </c>
       <c r="G2" t="n">
-        <v>3889.034700000001</v>
+        <v>2442.01355</v>
       </c>
       <c r="H2" t="n">
-        <v>300382.9002500001</v>
+        <v>31090.33025</v>
       </c>
       <c r="I2" t="n">
-        <v>477.01505</v>
+        <v>522.0150500000001</v>
       </c>
       <c r="J2" t="n">
-        <v>299905.8852</v>
+        <v>30568.31519999999</v>
       </c>
       <c r="K2" t="n">
-        <v>345995.3981999999</v>
+        <v>37698.351</v>
       </c>
       <c r="L2" t="n">
-        <v>3889.035</v>
+        <v>2442.013</v>
       </c>
       <c r="M2" t="n">
-        <v>342106.3632</v>
+        <v>35256.338</v>
       </c>
       <c r="N2" t="n">
-        <v>513.7402</v>
+        <v>607.2153999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>341592.6232</v>
+        <v>34649.1228</v>
       </c>
     </row>
     <row r="3">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.16</v>
+        <v>11148.804</v>
       </c>
       <c r="C3" t="n">
+        <v>187.343</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>32.917</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1259.494</v>
       </c>
       <c r="F3" t="n">
-        <v>242.116</v>
+        <v>35594.729</v>
       </c>
       <c r="G3" t="n">
-        <v>241.916</v>
+        <v>3823.742</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>31770.987</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>434.646</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>31336.341</v>
       </c>
       <c r="K3" t="n">
-        <v>873880.6428000001</v>
+        <v>37383.11</v>
       </c>
       <c r="L3" t="n">
-        <v>241.916</v>
+        <v>3823.742</v>
       </c>
       <c r="M3" t="n">
-        <v>873638.7268000001</v>
+        <v>33559.368</v>
       </c>
       <c r="N3" t="n">
-        <v>2464.2318</v>
+        <v>283.3784</v>
       </c>
       <c r="O3" t="n">
-        <v>871174.4948000001</v>
+        <v>33275.9896</v>
       </c>
     </row>
     <row r="4">
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34315.636</v>
+        <v>13402.931</v>
       </c>
       <c r="C4" t="n">
-        <v>164.945</v>
+        <v>146.664</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1360,34 +1360,34 @@
         <v>940.701</v>
       </c>
       <c r="F4" t="n">
-        <v>482611.019</v>
+        <v>54556.734</v>
       </c>
       <c r="G4" t="n">
-        <v>10951.17666027397</v>
+        <v>4313.12251780822</v>
       </c>
       <c r="H4" t="n">
-        <v>471659.842</v>
+        <v>50243.611</v>
       </c>
       <c r="I4" t="n">
         <v>645.861</v>
       </c>
       <c r="J4" t="n">
-        <v>471013.981</v>
+        <v>49597.75</v>
       </c>
       <c r="K4" t="n">
-        <v>344240.7482</v>
+        <v>38472.61339999999</v>
       </c>
       <c r="L4" t="n">
-        <v>11166.229</v>
+        <v>4528.175</v>
       </c>
       <c r="M4" t="n">
-        <v>333074.5192</v>
+        <v>33944.4384</v>
       </c>
       <c r="N4" t="n">
         <v>327.2848</v>
       </c>
       <c r="O4" t="n">
-        <v>332747.2344</v>
+        <v>33617.15360000001</v>
       </c>
     </row>
   </sheetData>
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10631.1021</v>
+        <v>7584.732449999999</v>
       </c>
       <c r="C2" t="n">
-        <v>131.98785</v>
+        <v>130.15975</v>
       </c>
       <c r="D2" t="n">
         <v>7.47775</v>
       </c>
       <c r="E2" t="n">
-        <v>744.25625</v>
+        <v>733.6062999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>347053.0277</v>
+        <v>37919.71579999999</v>
       </c>
       <c r="G2" t="n">
-        <v>3643.16695</v>
+        <v>2676.0659</v>
       </c>
       <c r="H2" t="n">
-        <v>343409.8607</v>
+        <v>35243.6499</v>
       </c>
       <c r="I2" t="n">
-        <v>564.6758999999998</v>
+        <v>594.6759</v>
       </c>
       <c r="J2" t="n">
-        <v>342845.1847999999</v>
+        <v>34648.974</v>
       </c>
       <c r="K2" t="n">
-        <v>175848.065</v>
+        <v>20243.3944</v>
       </c>
       <c r="L2" t="n">
-        <v>3643.167</v>
+        <v>2676.066</v>
       </c>
       <c r="M2" t="n">
-        <v>172204.898</v>
+        <v>17567.3284</v>
       </c>
       <c r="N2" t="n">
-        <v>246.0128</v>
+        <v>268.348</v>
       </c>
       <c r="O2" t="n">
-        <v>171958.885</v>
+        <v>17298.9806</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.2</v>
+        <v>11148.804</v>
       </c>
       <c r="C3" t="n">
+        <v>164.945</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.544</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1296.37</v>
       </c>
       <c r="F3" t="n">
-        <v>241.787</v>
+        <v>39762.836</v>
       </c>
       <c r="G3" t="n">
-        <v>240.69</v>
+        <v>3822.131</v>
       </c>
       <c r="H3" t="n">
-        <v>1.097</v>
+        <v>35940.704</v>
       </c>
       <c r="I3" t="n">
-        <v>1.097</v>
+        <v>483.387</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>35457.318</v>
       </c>
       <c r="K3" t="n">
-        <v>443581.4924</v>
+        <v>20776.7776</v>
       </c>
       <c r="L3" t="n">
-        <v>240.69</v>
+        <v>3822.131</v>
       </c>
       <c r="M3" t="n">
-        <v>443340.8024</v>
+        <v>16954.6466</v>
       </c>
       <c r="N3" t="n">
-        <v>1272.9576</v>
+        <v>82.0966</v>
       </c>
       <c r="O3" t="n">
-        <v>442067.8448000001</v>
+        <v>16872.5504</v>
       </c>
     </row>
     <row r="4">
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34315.636</v>
+        <v>13402.931</v>
       </c>
       <c r="C4" t="n">
-        <v>164.945</v>
+        <v>146.664</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1603,34 +1603,34 @@
         <v>940.701</v>
       </c>
       <c r="F4" t="n">
-        <v>482611.019</v>
+        <v>54556.734</v>
       </c>
       <c r="G4" t="n">
-        <v>10951.17666027397</v>
+        <v>4313.12251780822</v>
       </c>
       <c r="H4" t="n">
-        <v>471659.842</v>
+        <v>50243.611</v>
       </c>
       <c r="I4" t="n">
         <v>645.861</v>
       </c>
       <c r="J4" t="n">
-        <v>471013.981</v>
+        <v>49597.75</v>
       </c>
       <c r="K4" t="n">
-        <v>174039.7692</v>
+        <v>21687.0016</v>
       </c>
       <c r="L4" t="n">
-        <v>11166.229</v>
+        <v>4528.175</v>
       </c>
       <c r="M4" t="n">
-        <v>162873.5402</v>
+        <v>17158.8266</v>
       </c>
       <c r="N4" t="n">
-        <v>173.5422</v>
+        <v>178.6604</v>
       </c>
       <c r="O4" t="n">
-        <v>162699.998</v>
+        <v>16980.1664</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Scenarios/SA_Scenarios_DC.xlsx
+++ b/SA_Scenarios/SA_Scenarios_DC.xlsx
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6023.670550000001</v>
+        <v>1664.473699999999</v>
       </c>
       <c r="C2" t="n">
-        <v>114.78515</v>
+        <v>1990.3115</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1351</v>
+        <v>12.20105</v>
       </c>
       <c r="E2" t="n">
-        <v>672.0316</v>
+        <v>775.7470999999998</v>
       </c>
       <c r="F2" t="n">
-        <v>32867.3233</v>
+        <v>993.8527999999997</v>
       </c>
       <c r="G2" t="n">
-        <v>2177.90575</v>
+        <v>993.8527999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>30689.4177</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>488.3025</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30201.11519999999</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>43460.13060000001</v>
+        <v>41349.70080000001</v>
       </c>
       <c r="L2" t="n">
-        <v>2177.906</v>
+        <v>993.8529999999998</v>
       </c>
       <c r="M2" t="n">
-        <v>41282.2246</v>
+        <v>40355.8478</v>
       </c>
       <c r="N2" t="n">
-        <v>1019.015</v>
+        <v>2027.873</v>
       </c>
       <c r="O2" t="n">
-        <v>40263.20959999999</v>
+        <v>38327.9748</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9041.081</v>
+        <v>7985.395</v>
       </c>
       <c r="C3" t="n">
-        <v>187.343</v>
+        <v>2961.323</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1296.37</v>
+        <v>1652.713</v>
       </c>
       <c r="F3" t="n">
-        <v>34764.63</v>
+        <v>3265.302</v>
       </c>
       <c r="G3" t="n">
-        <v>3155.668</v>
+        <v>3120.128</v>
       </c>
       <c r="H3" t="n">
-        <v>31608.962</v>
+        <v>145.175</v>
       </c>
       <c r="I3" t="n">
-        <v>407.593</v>
+        <v>145.175</v>
       </c>
       <c r="J3" t="n">
-        <v>31201.369</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40656.5826</v>
+        <v>3483.02</v>
       </c>
       <c r="L3" t="n">
-        <v>3155.668</v>
+        <v>3120.128</v>
       </c>
       <c r="M3" t="n">
-        <v>37500.9146</v>
+        <v>362.892</v>
       </c>
       <c r="N3" t="n">
-        <v>669.2053999999999</v>
+        <v>362.892</v>
       </c>
       <c r="O3" t="n">
-        <v>36831.7092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -619,46 +619,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13402.931</v>
+        <v>10243.474</v>
       </c>
       <c r="C4" t="n">
-        <v>146.664</v>
+        <v>3427.315</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>940.701</v>
+        <v>631.981</v>
       </c>
       <c r="F4" t="n">
-        <v>54556.734</v>
+        <v>3649.922</v>
       </c>
       <c r="G4" t="n">
-        <v>4313.12251780822</v>
+        <v>3649.922101369863</v>
       </c>
       <c r="H4" t="n">
-        <v>50243.611</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>645.861</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49597.75</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40121.6768</v>
+        <v>3864.975</v>
       </c>
       <c r="L4" t="n">
-        <v>4528.175</v>
+        <v>3864.975</v>
       </c>
       <c r="M4" t="n">
-        <v>35593.5018</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>507.5482</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35085.9536</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6245.967900000001</v>
+        <v>1994.3703</v>
       </c>
       <c r="C2" t="n">
-        <v>115.66735</v>
+        <v>2056.10125</v>
       </c>
       <c r="D2" t="n">
         <v>12.91545</v>
       </c>
       <c r="E2" t="n">
-        <v>668.682</v>
+        <v>767.7413999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>32778.9351</v>
+        <v>1105.34615</v>
       </c>
       <c r="G2" t="n">
-        <v>2248.4867</v>
+        <v>1105.34615</v>
       </c>
       <c r="H2" t="n">
-        <v>30530.4485</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>476.9558</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30053.4927</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>43179.9518</v>
+        <v>20860.6868</v>
       </c>
       <c r="L2" t="n">
-        <v>2248.487</v>
+        <v>1105.346</v>
       </c>
       <c r="M2" t="n">
-        <v>40931.46479999999</v>
+        <v>19755.3408</v>
       </c>
       <c r="N2" t="n">
-        <v>919.8704</v>
+        <v>1059.1138</v>
       </c>
       <c r="O2" t="n">
-        <v>40011.5944</v>
+        <v>18696.2272</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9308.251</v>
+        <v>6717.371</v>
       </c>
       <c r="C3" t="n">
-        <v>187.343</v>
+        <v>2938.913</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1296.37</v>
+        <v>1196.855</v>
       </c>
       <c r="F3" t="n">
-        <v>34676.259</v>
+        <v>2983.484</v>
       </c>
       <c r="G3" t="n">
-        <v>3240.447</v>
+        <v>2706.009</v>
       </c>
       <c r="H3" t="n">
-        <v>31435.812</v>
+        <v>277.475</v>
       </c>
       <c r="I3" t="n">
-        <v>395.533</v>
+        <v>277.475</v>
       </c>
       <c r="J3" t="n">
-        <v>31040.279</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40894.4488</v>
+        <v>6586.832399999999</v>
       </c>
       <c r="L3" t="n">
-        <v>3240.447</v>
+        <v>2706.009</v>
       </c>
       <c r="M3" t="n">
-        <v>37654.0018</v>
+        <v>3880.8234</v>
       </c>
       <c r="N3" t="n">
-        <v>691.0186</v>
+        <v>626.818</v>
       </c>
       <c r="O3" t="n">
-        <v>36962.983</v>
+        <v>3254.0054</v>
       </c>
     </row>
     <row r="4">
@@ -862,46 +862,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13402.931</v>
+        <v>8628.054</v>
       </c>
       <c r="C4" t="n">
-        <v>146.664</v>
+        <v>3073.43</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>940.701</v>
+        <v>1250.284</v>
       </c>
       <c r="F4" t="n">
-        <v>54556.734</v>
+        <v>3112.591</v>
       </c>
       <c r="G4" t="n">
-        <v>4313.12251780822</v>
+        <v>3112.590561643835</v>
       </c>
       <c r="H4" t="n">
-        <v>50243.611</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>645.861</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49597.75</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40683.49200000001</v>
+        <v>3755.8482</v>
       </c>
       <c r="L4" t="n">
-        <v>4528.175</v>
+        <v>3327.643</v>
       </c>
       <c r="M4" t="n">
-        <v>36155.317</v>
+        <v>428.2052</v>
       </c>
       <c r="N4" t="n">
-        <v>576.1396000000001</v>
+        <v>428.2052</v>
       </c>
       <c r="O4" t="n">
-        <v>35579.17720000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6032.44505</v>
+        <v>2157.95765</v>
       </c>
       <c r="C2" t="n">
-        <v>115.6992</v>
+        <v>2000.9977</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5914</v>
+        <v>11.65735</v>
       </c>
       <c r="E2" t="n">
-        <v>652.9069499999999</v>
+        <v>789.1447499999999</v>
       </c>
       <c r="F2" t="n">
-        <v>32755.31530000001</v>
+        <v>1151.8421</v>
       </c>
       <c r="G2" t="n">
-        <v>2180.3823</v>
+        <v>1151.8421</v>
       </c>
       <c r="H2" t="n">
-        <v>30574.93305</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>498.85095</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30076.08209999999</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42513.6398</v>
+        <v>17387.7698</v>
       </c>
       <c r="L2" t="n">
-        <v>2180.382</v>
+        <v>1151.842</v>
       </c>
       <c r="M2" t="n">
-        <v>40333.2578</v>
+        <v>16235.9278</v>
       </c>
       <c r="N2" t="n">
-        <v>834.5408</v>
+        <v>1560.6412</v>
       </c>
       <c r="O2" t="n">
-        <v>39498.717</v>
+        <v>14675.287</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9539.026</v>
+        <v>7985.912</v>
       </c>
       <c r="C3" t="n">
-        <v>187.343</v>
+        <v>2921.255</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1296.37</v>
+        <v>1734.917</v>
       </c>
       <c r="F3" t="n">
-        <v>34591.876</v>
+        <v>3355.068</v>
       </c>
       <c r="G3" t="n">
-        <v>3313.678</v>
+        <v>3117.744</v>
       </c>
       <c r="H3" t="n">
-        <v>31278.197</v>
+        <v>237.324</v>
       </c>
       <c r="I3" t="n">
-        <v>431.226</v>
+        <v>237.324</v>
       </c>
       <c r="J3" t="n">
-        <v>30846.972</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41191.97040000001</v>
+        <v>3136.499800000001</v>
       </c>
       <c r="L3" t="n">
-        <v>3313.678</v>
+        <v>3117.744</v>
       </c>
       <c r="M3" t="n">
-        <v>37878.2924</v>
+        <v>18.7558</v>
       </c>
       <c r="N3" t="n">
-        <v>518.7686</v>
+        <v>18.7558</v>
       </c>
       <c r="O3" t="n">
-        <v>37359.5238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10458.234</v>
+        <v>10243.474</v>
       </c>
       <c r="C4" t="n">
-        <v>146.664</v>
+        <v>3427.315</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>957.05</v>
+        <v>631.981</v>
       </c>
       <c r="F4" t="n">
-        <v>51297.168</v>
+        <v>3649.922</v>
       </c>
       <c r="G4" t="n">
-        <v>3379.033221917808</v>
+        <v>3649.922101369863</v>
       </c>
       <c r="H4" t="n">
-        <v>47918.135</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>728.46</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47189.675</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41433.54460000001</v>
+        <v>3864.975</v>
       </c>
       <c r="L4" t="n">
-        <v>3594.086</v>
+        <v>3864.975</v>
       </c>
       <c r="M4" t="n">
-        <v>37839.4586</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>550.3248</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>37289.13400000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6857.11565</v>
+        <v>2451.1313</v>
       </c>
       <c r="C2" t="n">
-        <v>114.78515</v>
+        <v>2121.3981</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8161</v>
+        <v>12.88205</v>
       </c>
       <c r="E2" t="n">
-        <v>653.60195</v>
+        <v>751.8251</v>
       </c>
       <c r="F2" t="n">
-        <v>33532.3437</v>
+        <v>1256.86665</v>
       </c>
       <c r="G2" t="n">
-        <v>2442.01355</v>
+        <v>1256.86665</v>
       </c>
       <c r="H2" t="n">
-        <v>31090.33025</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>522.0150500000001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30568.31519999999</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37698.351</v>
+        <v>3028.7838</v>
       </c>
       <c r="L2" t="n">
-        <v>2442.013</v>
+        <v>1256.867</v>
       </c>
       <c r="M2" t="n">
-        <v>35256.338</v>
+        <v>1771.9168</v>
       </c>
       <c r="N2" t="n">
-        <v>607.2153999999999</v>
+        <v>414.9076</v>
       </c>
       <c r="O2" t="n">
-        <v>34649.1228</v>
+        <v>1357.0092</v>
       </c>
     </row>
     <row r="3">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11148.804</v>
+        <v>7985.395</v>
       </c>
       <c r="C3" t="n">
-        <v>187.343</v>
+        <v>2961.323</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1259.494</v>
+        <v>1652.713</v>
       </c>
       <c r="F3" t="n">
-        <v>35594.729</v>
+        <v>3356.025</v>
       </c>
       <c r="G3" t="n">
-        <v>3823.742</v>
+        <v>3120.128</v>
       </c>
       <c r="H3" t="n">
-        <v>31770.987</v>
+        <v>235.898</v>
       </c>
       <c r="I3" t="n">
-        <v>434.646</v>
+        <v>235.898</v>
       </c>
       <c r="J3" t="n">
-        <v>31336.341</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37383.11</v>
+        <v>3120.128</v>
       </c>
       <c r="L3" t="n">
-        <v>3823.742</v>
+        <v>3120.128</v>
       </c>
       <c r="M3" t="n">
-        <v>33559.368</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>283.3784</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33275.9896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1348,46 +1348,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13402.931</v>
+        <v>10243.474</v>
       </c>
       <c r="C4" t="n">
-        <v>146.664</v>
+        <v>3427.315</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>940.701</v>
+        <v>631.981</v>
       </c>
       <c r="F4" t="n">
-        <v>54556.734</v>
+        <v>3649.922</v>
       </c>
       <c r="G4" t="n">
-        <v>4313.12251780822</v>
+        <v>3649.922101369863</v>
       </c>
       <c r="H4" t="n">
-        <v>50243.611</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>645.861</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49597.75</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>38472.61339999999</v>
+        <v>3864.975</v>
       </c>
       <c r="L4" t="n">
-        <v>4528.175</v>
+        <v>3864.975</v>
       </c>
       <c r="M4" t="n">
-        <v>33944.4384</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>327.2848</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>33617.15360000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7584.732449999999</v>
+        <v>2541.111450000001</v>
       </c>
       <c r="C2" t="n">
-        <v>130.15975</v>
+        <v>2379.98045</v>
       </c>
       <c r="D2" t="n">
-        <v>7.47775</v>
+        <v>7.543699999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>733.6062999999999</v>
+        <v>873.9492499999999</v>
       </c>
       <c r="F2" t="n">
-        <v>37919.71579999999</v>
+        <v>1315.1723</v>
       </c>
       <c r="G2" t="n">
-        <v>2676.0659</v>
+        <v>1315.1723</v>
       </c>
       <c r="H2" t="n">
-        <v>35243.6499</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>594.6759</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34648.974</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>20243.3944</v>
+        <v>1707.1182</v>
       </c>
       <c r="L2" t="n">
-        <v>2676.066</v>
+        <v>1315.172</v>
       </c>
       <c r="M2" t="n">
-        <v>17567.3284</v>
+        <v>391.9462</v>
       </c>
       <c r="N2" t="n">
-        <v>268.348</v>
+        <v>56.09</v>
       </c>
       <c r="O2" t="n">
-        <v>17298.9806</v>
+        <v>335.8562</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11148.804</v>
+        <v>7985.395</v>
       </c>
       <c r="C3" t="n">
-        <v>164.945</v>
+        <v>2961.323</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1296.37</v>
+        <v>1652.713</v>
       </c>
       <c r="F3" t="n">
-        <v>39762.836</v>
+        <v>3356.025</v>
       </c>
       <c r="G3" t="n">
-        <v>3822.131</v>
+        <v>3120.128</v>
       </c>
       <c r="H3" t="n">
-        <v>35940.704</v>
+        <v>235.898</v>
       </c>
       <c r="I3" t="n">
-        <v>483.387</v>
+        <v>235.898</v>
       </c>
       <c r="J3" t="n">
-        <v>35457.318</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20776.7776</v>
+        <v>3120.128</v>
       </c>
       <c r="L3" t="n">
-        <v>3822.131</v>
+        <v>3120.128</v>
       </c>
       <c r="M3" t="n">
-        <v>16954.6466</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>82.0966</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16872.5504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1591,46 +1591,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13402.931</v>
+        <v>10243.474</v>
       </c>
       <c r="C4" t="n">
-        <v>146.664</v>
+        <v>3427.315</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>940.701</v>
+        <v>631.981</v>
       </c>
       <c r="F4" t="n">
-        <v>54556.734</v>
+        <v>3649.922</v>
       </c>
       <c r="G4" t="n">
-        <v>4313.12251780822</v>
+        <v>3649.922101369863</v>
       </c>
       <c r="H4" t="n">
-        <v>50243.611</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>645.861</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49597.75</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21687.0016</v>
+        <v>3864.975</v>
       </c>
       <c r="L4" t="n">
-        <v>4528.175</v>
+        <v>3864.975</v>
       </c>
       <c r="M4" t="n">
-        <v>17158.8266</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>178.6604</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16980.1664</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Scenarios/SA_Scenarios_DC.xlsx
+++ b/SA_Scenarios/SA_Scenarios_DC.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.473699999999</v>
+        <v>2370.6555</v>
       </c>
       <c r="C2" t="n">
-        <v>1990.3115</v>
+        <v>6468.854249999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.20105</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>775.7470999999998</v>
+        <v>0.8538500000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>993.8527999999997</v>
+        <v>617704.0963999999</v>
       </c>
       <c r="G2" t="n">
-        <v>993.8527999999997</v>
+        <v>533054.3232500001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>84649.77309999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30409.8684</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54239.9047</v>
       </c>
       <c r="K2" t="n">
-        <v>41349.70080000001</v>
+        <v>778536.6056</v>
       </c>
       <c r="L2" t="n">
-        <v>993.8529999999998</v>
+        <v>533054.321</v>
       </c>
       <c r="M2" t="n">
-        <v>40355.8478</v>
+        <v>245482.2846</v>
       </c>
       <c r="N2" t="n">
-        <v>2027.873</v>
+        <v>45206.88479999999</v>
       </c>
       <c r="O2" t="n">
-        <v>38327.9748</v>
+        <v>200275.3998</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7985.395</v>
+        <v>2504.02</v>
       </c>
       <c r="C3" t="n">
-        <v>2961.323</v>
+        <v>6760.436</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1652.713</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3265.302</v>
+        <v>649812.169</v>
       </c>
       <c r="G3" t="n">
-        <v>3120.128</v>
+        <v>559752.02</v>
       </c>
       <c r="H3" t="n">
-        <v>145.175</v>
+        <v>90060.149</v>
       </c>
       <c r="I3" t="n">
-        <v>145.175</v>
+        <v>25067.672</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>64992.478</v>
       </c>
       <c r="K3" t="n">
-        <v>3483.02</v>
+        <v>761873.308</v>
       </c>
       <c r="L3" t="n">
-        <v>3120.128</v>
+        <v>559752.01</v>
       </c>
       <c r="M3" t="n">
-        <v>362.892</v>
+        <v>202121.298</v>
       </c>
       <c r="N3" t="n">
-        <v>362.892</v>
+        <v>38278.1196</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>163843.1786</v>
       </c>
     </row>
     <row r="4">
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10243.474</v>
+        <v>3978.21</v>
       </c>
       <c r="C4" t="n">
-        <v>3427.315</v>
+        <v>5576.098</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>631.981</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3649.922</v>
+        <v>899493.831</v>
       </c>
       <c r="G4" t="n">
-        <v>3649.922101369863</v>
+        <v>676923.784</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>222570.047</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40068.954</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>182501.093</v>
       </c>
       <c r="K4" t="n">
-        <v>3864.975</v>
+        <v>764219.475</v>
       </c>
       <c r="L4" t="n">
-        <v>3864.975</v>
+        <v>684773.197</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>79446.27800000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>21565.8382</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>57880.4402</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1994.3703</v>
+        <v>2335.134150000001</v>
       </c>
       <c r="C2" t="n">
-        <v>2056.10125</v>
+        <v>6641.001849999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.91545</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7413999999999</v>
+        <v>0.8538500000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1105.34615</v>
+        <v>622168.4606999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1105.34615</v>
+        <v>535586.3604000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86582.10024999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31469.30235</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>55112.79790000001</v>
       </c>
       <c r="K2" t="n">
-        <v>20860.6868</v>
+        <v>733605.853</v>
       </c>
       <c r="L2" t="n">
-        <v>1105.346</v>
+        <v>535586.361</v>
       </c>
       <c r="M2" t="n">
-        <v>19755.3408</v>
+        <v>198019.492</v>
       </c>
       <c r="N2" t="n">
-        <v>1059.1138</v>
+        <v>39515.2724</v>
       </c>
       <c r="O2" t="n">
-        <v>18696.2272</v>
+        <v>158504.2194</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6717.371</v>
+        <v>2571.462</v>
       </c>
       <c r="C3" t="n">
-        <v>2938.913</v>
+        <v>6626.22</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1196.855</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2983.484</v>
+        <v>660445.6139999999</v>
       </c>
       <c r="G3" t="n">
-        <v>2706.009</v>
+        <v>562381.632</v>
       </c>
       <c r="H3" t="n">
-        <v>277.475</v>
+        <v>98063.981</v>
       </c>
       <c r="I3" t="n">
-        <v>277.475</v>
+        <v>25817.412</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>72246.569</v>
       </c>
       <c r="K3" t="n">
-        <v>6586.832399999999</v>
+        <v>717973.0434000001</v>
       </c>
       <c r="L3" t="n">
-        <v>2706.009</v>
+        <v>562381.591</v>
       </c>
       <c r="M3" t="n">
-        <v>3880.8234</v>
+        <v>155591.4524</v>
       </c>
       <c r="N3" t="n">
-        <v>626.818</v>
+        <v>32703.7992</v>
       </c>
       <c r="O3" t="n">
-        <v>3254.0054</v>
+        <v>122887.6528</v>
       </c>
     </row>
     <row r="4">
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8628.054</v>
+        <v>3741.126</v>
       </c>
       <c r="C4" t="n">
-        <v>3073.43</v>
+        <v>5667.983</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.284</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3112.591</v>
+        <v>779987.039</v>
       </c>
       <c r="G4" t="n">
-        <v>3112.590561643835</v>
+        <v>653011.353</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>126975.686</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15870.642</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>111105.044</v>
       </c>
       <c r="K4" t="n">
-        <v>3755.8482</v>
+        <v>743383.1618000001</v>
       </c>
       <c r="L4" t="n">
-        <v>3327.643</v>
+        <v>660860.767</v>
       </c>
       <c r="M4" t="n">
-        <v>428.2052</v>
+        <v>82522.39479999999</v>
       </c>
       <c r="N4" t="n">
-        <v>428.2052</v>
+        <v>21438.3192</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>61084.07539999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2157.95765</v>
+        <v>2484.16415</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.9977</v>
+        <v>6540.121349999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.65735</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>789.1447499999999</v>
+        <v>0.8538500000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1151.8421</v>
+        <v>642454.7817999998</v>
       </c>
       <c r="G2" t="n">
-        <v>1151.8421</v>
+        <v>548952.7588000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93502.02290000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31010.39455</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62491.62835000001</v>
       </c>
       <c r="K2" t="n">
-        <v>17387.7698</v>
+        <v>639689.9158</v>
       </c>
       <c r="L2" t="n">
-        <v>1151.842</v>
+        <v>548952.767</v>
       </c>
       <c r="M2" t="n">
-        <v>16235.9278</v>
+        <v>90737.1488</v>
       </c>
       <c r="N2" t="n">
-        <v>1560.6412</v>
+        <v>28718.247</v>
       </c>
       <c r="O2" t="n">
-        <v>14675.287</v>
+        <v>62018.9014</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7985.912</v>
+        <v>2626.663</v>
       </c>
       <c r="C3" t="n">
-        <v>2921.255</v>
+        <v>6516.365</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1734.917</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3355.068</v>
+        <v>679840.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3117.744</v>
+        <v>564533.9399999999</v>
       </c>
       <c r="H3" t="n">
-        <v>237.324</v>
+        <v>115306.309</v>
       </c>
       <c r="I3" t="n">
-        <v>237.324</v>
+        <v>27058.377</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>88247.933</v>
       </c>
       <c r="K3" t="n">
-        <v>3136.499800000001</v>
+        <v>640448.9985999999</v>
       </c>
       <c r="L3" t="n">
-        <v>3117.744</v>
+        <v>564533.901</v>
       </c>
       <c r="M3" t="n">
-        <v>18.7558</v>
+        <v>75915.09760000001</v>
       </c>
       <c r="N3" t="n">
-        <v>18.7558</v>
+        <v>25983.6236</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>49931.474</v>
       </c>
     </row>
     <row r="4">
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10243.474</v>
+        <v>3978.21</v>
       </c>
       <c r="C4" t="n">
-        <v>3427.315</v>
+        <v>5576.098</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>631.981</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3649.922</v>
+        <v>899493.831</v>
       </c>
       <c r="G4" t="n">
-        <v>3649.922101369863</v>
+        <v>676923.784</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>222570.047</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40068.954</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>182501.093</v>
       </c>
       <c r="K4" t="n">
-        <v>3864.975</v>
+        <v>711791.9460000001</v>
       </c>
       <c r="L4" t="n">
-        <v>3864.975</v>
+        <v>684773.197</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27018.749</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13201.3758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13817.3734</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2451.1313</v>
+        <v>2568.2892</v>
       </c>
       <c r="C2" t="n">
-        <v>2121.3981</v>
+        <v>6665.070999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>12.88205</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>751.8251</v>
+        <v>0.8538500000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1256.86665</v>
+        <v>659804.0295499999</v>
       </c>
       <c r="G2" t="n">
-        <v>1256.86665</v>
+        <v>563520.4671500002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96283.56230000002</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>32287.12115</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63996.44115000001</v>
       </c>
       <c r="K2" t="n">
-        <v>3028.7838</v>
+        <v>601388.9201999999</v>
       </c>
       <c r="L2" t="n">
-        <v>1256.867</v>
+        <v>563520.468</v>
       </c>
       <c r="M2" t="n">
-        <v>1771.9168</v>
+        <v>37868.4522</v>
       </c>
       <c r="N2" t="n">
-        <v>414.9076</v>
+        <v>12969.1112</v>
       </c>
       <c r="O2" t="n">
-        <v>1357.0092</v>
+        <v>24899.341</v>
       </c>
     </row>
     <row r="3">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7985.395</v>
+        <v>2712.808</v>
       </c>
       <c r="C3" t="n">
-        <v>2961.323</v>
+        <v>6718.882</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1652.713</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3356.025</v>
+        <v>687861.392</v>
       </c>
       <c r="G3" t="n">
-        <v>3120.128</v>
+        <v>582330.2290000001</v>
       </c>
       <c r="H3" t="n">
-        <v>235.898</v>
+        <v>105531.163</v>
       </c>
       <c r="I3" t="n">
-        <v>235.898</v>
+        <v>27189.103</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>78342.06</v>
       </c>
       <c r="K3" t="n">
-        <v>3120.128</v>
+        <v>615211.7037999999</v>
       </c>
       <c r="L3" t="n">
-        <v>3120.128</v>
+        <v>582330.269</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>32881.4348</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11108.7692</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>21772.6658</v>
       </c>
     </row>
     <row r="4">
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10243.474</v>
+        <v>3978.21</v>
       </c>
       <c r="C4" t="n">
-        <v>3427.315</v>
+        <v>5576.098</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>631.981</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3649.922</v>
+        <v>899493.831</v>
       </c>
       <c r="G4" t="n">
-        <v>3649.922101369863</v>
+        <v>676923.784</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>222570.047</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40068.954</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>182501.093</v>
       </c>
       <c r="K4" t="n">
-        <v>3864.975</v>
+        <v>705390.5298</v>
       </c>
       <c r="L4" t="n">
-        <v>3864.975</v>
+        <v>684773.197</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>20617.3328</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7240.306399999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13377.0264</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2541.111450000001</v>
+        <v>2521.8506</v>
       </c>
       <c r="C2" t="n">
-        <v>2379.98045</v>
+        <v>6651.53275</v>
       </c>
       <c r="D2" t="n">
-        <v>7.543699999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9492499999999</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1315.1723</v>
+        <v>651275.34215</v>
       </c>
       <c r="G2" t="n">
-        <v>1315.1723</v>
+        <v>557612.6916000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93662.65045</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30171.87735</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63490.77310000001</v>
       </c>
       <c r="K2" t="n">
-        <v>1707.1182</v>
+        <v>643151.277</v>
       </c>
       <c r="L2" t="n">
-        <v>1315.172</v>
+        <v>557612.693</v>
       </c>
       <c r="M2" t="n">
-        <v>391.9462</v>
+        <v>85538.584</v>
       </c>
       <c r="N2" t="n">
-        <v>56.09</v>
+        <v>27294.459</v>
       </c>
       <c r="O2" t="n">
-        <v>335.8562</v>
+        <v>58244.125</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7985.395</v>
+        <v>2562.88</v>
       </c>
       <c r="C3" t="n">
-        <v>2961.323</v>
+        <v>6573.541</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1652.713</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3356.025</v>
+        <v>679391.459</v>
       </c>
       <c r="G3" t="n">
-        <v>3120.128</v>
+        <v>559353.732</v>
       </c>
       <c r="H3" t="n">
-        <v>235.898</v>
+        <v>120037.727</v>
       </c>
       <c r="I3" t="n">
-        <v>235.898</v>
+        <v>27970.756</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>92066.97199999999</v>
       </c>
       <c r="K3" t="n">
-        <v>3120.128</v>
+        <v>642828.0828</v>
       </c>
       <c r="L3" t="n">
-        <v>3120.128</v>
+        <v>559353.77</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>83474.3128</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26653.524</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>56820.7892</v>
       </c>
     </row>
     <row r="4">
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10243.474</v>
+        <v>3978.21</v>
       </c>
       <c r="C4" t="n">
-        <v>3427.315</v>
+        <v>5576.098</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>631.981</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3649.922</v>
+        <v>899493.831</v>
       </c>
       <c r="G4" t="n">
-        <v>3649.922101369863</v>
+        <v>676923.784</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>222570.047</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40068.954</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>182501.093</v>
       </c>
       <c r="K4" t="n">
-        <v>3864.975</v>
+        <v>711393.2654</v>
       </c>
       <c r="L4" t="n">
-        <v>3864.975</v>
+        <v>684773.197</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>26620.0684</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13094.6084</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13525.46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>